--- a/prototypes/creates/create buildings.xlsx
+++ b/prototypes/creates/create buildings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="222">
   <si>
     <t>{ type = "mining-drill", name = "</t>
   </si>
@@ -204,297 +204,6 @@
     <t xml:space="preserve">, max_health = </t>
   </si>
   <si>
-    <t xml:space="preserve"> {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    type = "electric-turret",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    name = "cursed-turret-1",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    icon = "__base__/graphics/turrets/icons/cursed-turret-1.png",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    max_health = 250,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    energy_source =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      type = "electric",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      buffer_capacity = "201kJ",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      input_flow_limit = "1200kW",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      drain = "6kW",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      usage_priority = "primary-input"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    },</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    rotation_speed = 0.01,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    preparing_speed = 0.05,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    attack_parameters =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ammo_category = "electric",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      cooldown = 20,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      damage = 2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      projectile_center = {0, 0},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      projectile_creation_distance = 0.6,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      range = 25,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ammo_type =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        type = "projectile",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        category = "laser-turret",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        energy_consumption = "200kJ",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        action =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            type = "direct",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            action_delivery =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                type = "projectile",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                projectile = "laser",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                starting_speed = 0.28,</t>
-  </si>
-  <si>
-    <t>target_effects =</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  {</t>
-  </si>
-  <si>
-    <t>type = "create-entity",</t>
-  </si>
-  <si>
-    <t>entity_name = "explosion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  },</t>
-  </si>
-  <si>
-    <t>type = "nested-result",</t>
-  </si>
-  <si>
-    <t>action =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  type = "area",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perimeter = 6.5,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  action_delivery =</t>
-  </si>
-  <si>
-    <t>type = "instant",</t>
-  </si>
-  <si>
-    <t>target_effects = { { type = "damage", damage = {amount = 40, type = "explosion" } },</t>
-  </si>
-  <si>
-    <t>{ type = "create-entity", entity_name = "explosion" }</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      },</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      sound =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          filename = "__base__/sound/laser.ogg",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          volume = 0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    flags = { "placeable-player", "placeable-enemy", "player-creation"},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    minable = { mining_time = 0.5, result = "cursed-turret-1" },</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    corpse = "small-remnants",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    collision_box = {{ -0.4, -0.4}, {0.4, 0.4}},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    selection_box = {{ -0.4, -0.4}, {0.4, 0.4}},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    dying_explosion = "huge-explosion",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    folding_speed = 0.05,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    folded_animation = (function()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          local res = util.table.deepcopy(laser_turret_extension)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          res.frame_count = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          res.line_length = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          return res</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       end)(),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    preparing_animation = laser_turret_extension,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    prepared_animation =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      filename = "__base__/graphics/entity/laser-turret/laser-turret.png",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      priority = "medium",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      width = 131,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      height = 72,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      direction_count = 64,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      frame_count = 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      line_length = 8,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      axially_symmetrical = false,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      shift = {1.328125, -0.375}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    folding_animation = (function()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          res.run_mode = "backward"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    base_picture =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      filename = "__base__/graphics/entity/laser-turret/laser-turret-base.png",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      priority = "high",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      width = 43,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      height = 28,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      shift = { 0.109375, 0.03125 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = </t>
-  </si>
-  <si>
     <t>Cursed drill - Level 1</t>
   </si>
   <si>
@@ -643,6 +352,336 @@
   </si>
   <si>
     <t>Cursed drill - Level 50</t>
+  </si>
+  <si>
+    <t>{ type = "turret", name = "</t>
+  </si>
+  <si>
+    <t>cursed-turret-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> , type = "physical"} } } } } } } } } },</t>
+  </si>
+  <si>
+    <t>daño</t>
+  </si>
+  <si>
+    <t>rango</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>cursed-turret-2</t>
+  </si>
+  <si>
+    <t>cursed-turret-3</t>
+  </si>
+  <si>
+    <t>cursed-turret-4</t>
+  </si>
+  <si>
+    <t>cursed-turret-5</t>
+  </si>
+  <si>
+    <t>cursed-turret-6</t>
+  </si>
+  <si>
+    <t>cursed-turret-7</t>
+  </si>
+  <si>
+    <t>cursed-turret-8</t>
+  </si>
+  <si>
+    <t>cursed-turret-9</t>
+  </si>
+  <si>
+    <t>cursed-turret-10</t>
+  </si>
+  <si>
+    <t>cursed-turret-11</t>
+  </si>
+  <si>
+    <t>cursed-turret-12</t>
+  </si>
+  <si>
+    <t>cursed-turret-13</t>
+  </si>
+  <si>
+    <t>cursed-turret-14</t>
+  </si>
+  <si>
+    <t>cursed-turret-15</t>
+  </si>
+  <si>
+    <t>cursed-turret-16</t>
+  </si>
+  <si>
+    <t>cursed-turret-17</t>
+  </si>
+  <si>
+    <t>cursed-turret-18</t>
+  </si>
+  <si>
+    <t>cursed-turret-19</t>
+  </si>
+  <si>
+    <t>cursed-turret-20</t>
+  </si>
+  <si>
+    <t>cursed-turret-21</t>
+  </si>
+  <si>
+    <t>cursed-turret-22</t>
+  </si>
+  <si>
+    <t>cursed-turret-23</t>
+  </si>
+  <si>
+    <t>cursed-turret-24</t>
+  </si>
+  <si>
+    <t>cursed-turret-25</t>
+  </si>
+  <si>
+    <t>cursed-turret-26</t>
+  </si>
+  <si>
+    <t>cursed-turret-27</t>
+  </si>
+  <si>
+    <t>cursed-turret-28</t>
+  </si>
+  <si>
+    <t>cursed-turret-29</t>
+  </si>
+  <si>
+    <t>cursed-turret-30</t>
+  </si>
+  <si>
+    <t>cursed-turret-31</t>
+  </si>
+  <si>
+    <t>cursed-turret-32</t>
+  </si>
+  <si>
+    <t>cursed-turret-33</t>
+  </si>
+  <si>
+    <t>cursed-turret-34</t>
+  </si>
+  <si>
+    <t>cursed-turret-35</t>
+  </si>
+  <si>
+    <t>cursed-turret-36</t>
+  </si>
+  <si>
+    <t>cursed-turret-37</t>
+  </si>
+  <si>
+    <t>cursed-turret-38</t>
+  </si>
+  <si>
+    <t>cursed-turret-39</t>
+  </si>
+  <si>
+    <t>cursed-turret-40</t>
+  </si>
+  <si>
+    <t>cursed-turret-41</t>
+  </si>
+  <si>
+    <t>cursed-turret-42</t>
+  </si>
+  <si>
+    <t>cursed-turret-43</t>
+  </si>
+  <si>
+    <t>cursed-turret-44</t>
+  </si>
+  <si>
+    <t>cursed-turret-45</t>
+  </si>
+  <si>
+    <t>cursed-turret-46</t>
+  </si>
+  <si>
+    <t>cursed-turret-47</t>
+  </si>
+  <si>
+    <t>cursed-turret-48</t>
+  </si>
+  <si>
+    <t>cursed-turret-49</t>
+  </si>
+  <si>
+    <t>cursed-turret-50</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 1</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 2</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 3</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 4</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 5</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 6</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 7</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 8</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 9</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 10</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 11</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 12</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 13</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 14</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 15</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 16</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 17</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 18</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 19</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 20</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 21</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 22</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 23</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 24</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 25</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 26</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 27</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 28</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 29</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 30</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 31</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 32</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 33</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 34</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 35</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 36</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 37</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 38</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 39</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 40</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 41</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 42</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 43</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 44</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 45</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 46</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 47</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 48</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 49</t>
+  </si>
+  <si>
+    <t>Sunken Colony - Level 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </t>
   </si>
 </sst>
 </file>
@@ -983,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J24" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B2:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1072,7 @@
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2)</f>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-1", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 2, max_health = 200, mining_speed = 0.25, resource_searching_radius = 1.49, energy_usage = "50kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-1", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 2, max_health = 200, mining_speed = 0.25, resource_searching_radius = 1.49, energy_usage = "50kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1042,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1073,7 +1112,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P2">
         <v>0.01</v>
@@ -1087,7 +1126,7 @@
         <v>1.5</v>
       </c>
       <c r="T2" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="U2" t="str">
         <f>CONCATENATE(D2," = ",T2)</f>
@@ -1100,7 +1139,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B51" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3)</f>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-2", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 3.5, max_health = 225, mining_speed = 0.75, resource_searching_radius = 3.49, energy_usage = "75kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-2", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 3.5, max_health = 225, mining_speed = 0.75, resource_searching_radius = 3.49, energy_usage = "75kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1109,7 +1148,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F3">
         <v>3.5</v>
@@ -1140,7 +1179,7 @@
         <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P3">
         <v>0.02</v>
@@ -1154,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="T3" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="U3" t="str">
         <f t="shared" ref="U3:U51" si="4">CONCATENATE(D3," = ",T3)</f>
@@ -1167,7 +1206,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-3", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 5, max_health = 250, mining_speed = 1.5, resource_searching_radius = 5.49, energy_usage = "100kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-3", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 5, max_health = 250, mining_speed = 1.5, resource_searching_radius = 5.49, energy_usage = "100kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -1176,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1207,7 +1246,7 @@
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P4">
         <v>0.03</v>
@@ -1221,7 +1260,7 @@
         <v>4.5</v>
       </c>
       <c r="T4" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" si="4"/>
@@ -1234,7 +1273,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-4", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 6.5, max_health = 275, mining_speed = 2.5, resource_searching_radius = 7.49, energy_usage = "125kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-4", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 6.5, max_health = 275, mining_speed = 2.5, resource_searching_radius = 7.49, energy_usage = "125kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1243,7 +1282,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F5">
         <v>6.5</v>
@@ -1274,7 +1313,7 @@
         <v>125</v>
       </c>
       <c r="O5" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P5">
         <v>0.04</v>
@@ -1288,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="T5" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="4"/>
@@ -1301,7 +1340,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-5", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 8, max_health = 300, mining_speed = 3.75, resource_searching_radius = 9.49, energy_usage = "150kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-5", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 8, max_health = 300, mining_speed = 3.75, resource_searching_radius = 9.49, energy_usage = "150kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -1310,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -1341,7 +1380,7 @@
         <v>150</v>
       </c>
       <c r="O6" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P6">
         <v>0.05</v>
@@ -1355,7 +1394,7 @@
         <v>7.5</v>
       </c>
       <c r="T6" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
@@ -1368,7 +1407,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-6", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 9.5, max_health = 325, mining_speed = 5.25, resource_searching_radius = 11.49, energy_usage = "175kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-6", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 9.5, max_health = 325, mining_speed = 5.25, resource_searching_radius = 11.49, energy_usage = "175kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -1377,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F7">
         <v>9.5</v>
@@ -1408,7 +1447,7 @@
         <v>175</v>
       </c>
       <c r="O7" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P7">
         <v>0.06</v>
@@ -1422,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="T7" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
@@ -1435,7 +1474,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-7", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 11, max_health = 350, mining_speed = 7, resource_searching_radius = 13.49, energy_usage = "200kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-7", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 11, max_health = 350, mining_speed = 7, resource_searching_radius = 13.49, energy_usage = "200kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -1444,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F8">
         <v>11</v>
@@ -1475,7 +1514,7 @@
         <v>200</v>
       </c>
       <c r="O8" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P8">
         <v>7.0000000000000007E-2</v>
@@ -1489,7 +1528,7 @@
         <v>10.500000000000002</v>
       </c>
       <c r="T8" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
@@ -1502,7 +1541,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-8", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 12.5, max_health = 375, mining_speed = 9, resource_searching_radius = 15.49, energy_usage = "225kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-8", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 12.5, max_health = 375, mining_speed = 9, resource_searching_radius = 15.49, energy_usage = "225kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -1511,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F9">
         <v>12.5</v>
@@ -1542,7 +1581,7 @@
         <v>225</v>
       </c>
       <c r="O9" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P9">
         <v>0.08</v>
@@ -1556,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="T9" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
@@ -1569,7 +1608,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-9", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 14, max_health = 400, mining_speed = 11.25, resource_searching_radius = 17.49, energy_usage = "250kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-9", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 14, max_health = 400, mining_speed = 11.25, resource_searching_radius = 17.49, energy_usage = "250kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1578,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F10">
         <v>14</v>
@@ -1609,7 +1648,7 @@
         <v>250</v>
       </c>
       <c r="O10" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P10">
         <v>0.09</v>
@@ -1623,7 +1662,7 @@
         <v>13.5</v>
       </c>
       <c r="T10" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="4"/>
@@ -1636,7 +1675,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-10", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 15.5, max_health = 425, mining_speed = 13.75, resource_searching_radius = 19.49, energy_usage = "275kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-10", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 15.5, max_health = 425, mining_speed = 13.75, resource_searching_radius = 19.49, energy_usage = "275kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -1645,7 +1684,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F11">
         <v>15.5</v>
@@ -1676,7 +1715,7 @@
         <v>275</v>
       </c>
       <c r="O11" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P11">
         <v>0.1</v>
@@ -1690,7 +1729,7 @@
         <v>15</v>
       </c>
       <c r="T11" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="4"/>
@@ -1703,7 +1742,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-11", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 17, max_health = 450, mining_speed = 16.5, resource_searching_radius = 21.49, energy_usage = "300kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-11", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 17, max_health = 450, mining_speed = 16.5, resource_searching_radius = 21.49, energy_usage = "300kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -1712,7 +1751,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F12">
         <v>17</v>
@@ -1743,7 +1782,7 @@
         <v>300</v>
       </c>
       <c r="O12" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P12">
         <v>0.11</v>
@@ -1757,7 +1796,7 @@
         <v>16.5</v>
       </c>
       <c r="T12" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="4"/>
@@ -1770,7 +1809,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-12", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 18.5, max_health = 475, mining_speed = 19.5, resource_searching_radius = 23.49, energy_usage = "325kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-12", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 18.5, max_health = 475, mining_speed = 19.5, resource_searching_radius = 23.49, energy_usage = "325kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -1779,7 +1818,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F13">
         <v>18.5</v>
@@ -1810,7 +1849,7 @@
         <v>325</v>
       </c>
       <c r="O13" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P13">
         <v>0.12</v>
@@ -1824,7 +1863,7 @@
         <v>18</v>
       </c>
       <c r="T13" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="4"/>
@@ -1837,7 +1876,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-13", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 20, max_health = 500, mining_speed = 22.75, resource_searching_radius = 25.49, energy_usage = "350kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-13", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 20, max_health = 500, mining_speed = 22.75, resource_searching_radius = 25.49, energy_usage = "350kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -1846,7 +1885,7 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1877,7 +1916,7 @@
         <v>350</v>
       </c>
       <c r="O14" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P14">
         <v>0.13</v>
@@ -1891,7 +1930,7 @@
         <v>19.5</v>
       </c>
       <c r="T14" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="4"/>
@@ -1904,7 +1943,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-14", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 21.5, max_health = 525, mining_speed = 26.25, resource_searching_radius = 27.49, energy_usage = "375kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-14", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 21.5, max_health = 525, mining_speed = 26.25, resource_searching_radius = 27.49, energy_usage = "375kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -1913,7 +1952,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F15">
         <v>21.5</v>
@@ -1944,7 +1983,7 @@
         <v>375</v>
       </c>
       <c r="O15" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P15">
         <v>0.14000000000000001</v>
@@ -1958,7 +1997,7 @@
         <v>21.000000000000004</v>
       </c>
       <c r="T15" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="4"/>
@@ -1971,7 +2010,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-15", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 23, max_health = 550, mining_speed = 30, resource_searching_radius = 29.49, energy_usage = "400kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-15", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 23, max_health = 550, mining_speed = 30, resource_searching_radius = 29.49, energy_usage = "400kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -1980,7 +2019,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F16">
         <v>23</v>
@@ -2011,7 +2050,7 @@
         <v>400</v>
       </c>
       <c r="O16" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P16">
         <v>0.15</v>
@@ -2025,7 +2064,7 @@
         <v>22.5</v>
       </c>
       <c r="T16" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="4"/>
@@ -2038,7 +2077,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-16", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 24.5, max_health = 575, mining_speed = 34, resource_searching_radius = 31.49, energy_usage = "425kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-16", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 24.5, max_health = 575, mining_speed = 34, resource_searching_radius = 31.49, energy_usage = "425kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -2047,7 +2086,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F17">
         <v>24.5</v>
@@ -2078,7 +2117,7 @@
         <v>425</v>
       </c>
       <c r="O17" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P17">
         <v>0.16</v>
@@ -2092,7 +2131,7 @@
         <v>24</v>
       </c>
       <c r="T17" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="4"/>
@@ -2105,7 +2144,7 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-17", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 26, max_health = 600, mining_speed = 38.25, resource_searching_radius = 33.49, energy_usage = "450kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-17", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 26, max_health = 600, mining_speed = 38.25, resource_searching_radius = 33.49, energy_usage = "450kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2114,7 +2153,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F18">
         <v>26</v>
@@ -2145,7 +2184,7 @@
         <v>450</v>
       </c>
       <c r="O18" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P18">
         <v>0.17</v>
@@ -2159,7 +2198,7 @@
         <v>25.500000000000004</v>
       </c>
       <c r="T18" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="4"/>
@@ -2172,7 +2211,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-18", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 27.5, max_health = 625, mining_speed = 42.75, resource_searching_radius = 35.49, energy_usage = "475kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-18", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 27.5, max_health = 625, mining_speed = 42.75, resource_searching_radius = 35.49, energy_usage = "475kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -2181,7 +2220,7 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>27.5</v>
@@ -2212,7 +2251,7 @@
         <v>475</v>
       </c>
       <c r="O19" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P19">
         <v>0.18</v>
@@ -2226,7 +2265,7 @@
         <v>27</v>
       </c>
       <c r="T19" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="4"/>
@@ -2239,7 +2278,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-19", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 29, max_health = 650, mining_speed = 47.5, resource_searching_radius = 37.49, energy_usage = "500kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-19", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 29, max_health = 650, mining_speed = 47.5, resource_searching_radius = 37.49, energy_usage = "500kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -2248,7 +2287,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F20">
         <v>29</v>
@@ -2279,7 +2318,7 @@
         <v>500</v>
       </c>
       <c r="O20" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P20">
         <v>0.19</v>
@@ -2293,7 +2332,7 @@
         <v>28.5</v>
       </c>
       <c r="T20" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="4"/>
@@ -2306,7 +2345,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-20", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 30.5, max_health = 675, mining_speed = 52.5, resource_searching_radius = 39.49, energy_usage = "525kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-20", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 30.5, max_health = 675, mining_speed = 52.5, resource_searching_radius = 39.49, energy_usage = "525kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -2315,7 +2354,7 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F21">
         <v>30.5</v>
@@ -2346,7 +2385,7 @@
         <v>525</v>
       </c>
       <c r="O21" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P21">
         <v>0.2</v>
@@ -2360,7 +2399,7 @@
         <v>30</v>
       </c>
       <c r="T21" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="4"/>
@@ -2373,7 +2412,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-21", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 32, max_health = 700, mining_speed = 57.75, resource_searching_radius = 41.49, energy_usage = "550kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-21", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 32, max_health = 700, mining_speed = 57.75, resource_searching_radius = 41.49, energy_usage = "550kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -2382,7 +2421,7 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F22">
         <v>32</v>
@@ -2413,7 +2452,7 @@
         <v>550</v>
       </c>
       <c r="O22" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P22">
         <v>0.21</v>
@@ -2427,7 +2466,7 @@
         <v>31.5</v>
       </c>
       <c r="T22" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="4"/>
@@ -2440,7 +2479,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-22", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 33.5, max_health = 725, mining_speed = 63.25, resource_searching_radius = 43.49, energy_usage = "575kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-22", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 33.5, max_health = 725, mining_speed = 63.25, resource_searching_radius = 43.49, energy_usage = "575kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -2449,7 +2488,7 @@
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F23">
         <v>33.5</v>
@@ -2480,7 +2519,7 @@
         <v>575</v>
       </c>
       <c r="O23" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P23">
         <v>0.22</v>
@@ -2494,7 +2533,7 @@
         <v>33</v>
       </c>
       <c r="T23" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="4"/>
@@ -2507,7 +2546,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-23", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 35, max_health = 750, mining_speed = 69, resource_searching_radius = 45.49, energy_usage = "600kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-23", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 35, max_health = 750, mining_speed = 69, resource_searching_radius = 45.49, energy_usage = "600kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -2516,7 +2555,7 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F24">
         <v>35</v>
@@ -2547,7 +2586,7 @@
         <v>600</v>
       </c>
       <c r="O24" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P24">
         <v>0.23</v>
@@ -2561,7 +2600,7 @@
         <v>34.5</v>
       </c>
       <c r="T24" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="4"/>
@@ -2574,7 +2613,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-24", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 36.5, max_health = 775, mining_speed = 75, resource_searching_radius = 47.49, energy_usage = "625kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-24", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 36.5, max_health = 775, mining_speed = 75, resource_searching_radius = 47.49, energy_usage = "625kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -2583,7 +2622,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F25">
         <v>36.5</v>
@@ -2614,7 +2653,7 @@
         <v>625</v>
       </c>
       <c r="O25" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P25">
         <v>0.24</v>
@@ -2628,7 +2667,7 @@
         <v>36</v>
       </c>
       <c r="T25" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="4"/>
@@ -2641,7 +2680,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-25", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 38, max_health = 800, mining_speed = 81.25, resource_searching_radius = 49.49, energy_usage = "650kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-25", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 38, max_health = 800, mining_speed = 81.25, resource_searching_radius = 49.49, energy_usage = "650kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -2650,7 +2689,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F26">
         <v>38</v>
@@ -2681,7 +2720,7 @@
         <v>650</v>
       </c>
       <c r="O26" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P26">
         <v>0.25</v>
@@ -2695,7 +2734,7 @@
         <v>37.5</v>
       </c>
       <c r="T26" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="4"/>
@@ -2708,7 +2747,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-26", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 39.5, max_health = 825, mining_speed = 87.75, resource_searching_radius = 51.49, energy_usage = "675kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-26", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 39.5, max_health = 825, mining_speed = 87.75, resource_searching_radius = 51.49, energy_usage = "675kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -2717,7 +2756,7 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F27">
         <v>39.5</v>
@@ -2748,7 +2787,7 @@
         <v>675</v>
       </c>
       <c r="O27" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P27">
         <v>0.26</v>
@@ -2762,7 +2801,7 @@
         <v>39</v>
       </c>
       <c r="T27" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="4"/>
@@ -2775,7 +2814,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-27", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 41, max_health = 850, mining_speed = 94.5, resource_searching_radius = 53.49, energy_usage = "700kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-27", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 41, max_health = 850, mining_speed = 94.5, resource_searching_radius = 53.49, energy_usage = "700kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -2784,7 +2823,7 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F28">
         <v>41</v>
@@ -2815,7 +2854,7 @@
         <v>700</v>
       </c>
       <c r="O28" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P28">
         <v>0.27</v>
@@ -2829,7 +2868,7 @@
         <v>40.5</v>
       </c>
       <c r="T28" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="4"/>
@@ -2842,7 +2881,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-28", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 42.5, max_health = 875, mining_speed = 101.5, resource_searching_radius = 55.49, energy_usage = "725kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-28", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 42.5, max_health = 875, mining_speed = 101.5, resource_searching_radius = 55.49, energy_usage = "725kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -2851,7 +2890,7 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F29">
         <v>42.5</v>
@@ -2882,7 +2921,7 @@
         <v>725</v>
       </c>
       <c r="O29" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P29">
         <v>0.28000000000000003</v>
@@ -2896,7 +2935,7 @@
         <v>42.000000000000007</v>
       </c>
       <c r="T29" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="4"/>
@@ -2909,7 +2948,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-29", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 44, max_health = 900, mining_speed = 108.75, resource_searching_radius = 57.49, energy_usage = "750kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-29", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 44, max_health = 900, mining_speed = 108.75, resource_searching_radius = 57.49, energy_usage = "750kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -2918,7 +2957,7 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F30">
         <v>44</v>
@@ -2949,7 +2988,7 @@
         <v>750</v>
       </c>
       <c r="O30" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P30">
         <v>0.28999999999999998</v>
@@ -2963,7 +3002,7 @@
         <v>43.5</v>
       </c>
       <c r="T30" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="4"/>
@@ -2976,7 +3015,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-30", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 45.5, max_health = 925, mining_speed = 116.25, resource_searching_radius = 59.49, energy_usage = "775kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-30", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 45.5, max_health = 925, mining_speed = 116.25, resource_searching_radius = 59.49, energy_usage = "775kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -2985,7 +3024,7 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F31">
         <v>45.5</v>
@@ -3016,7 +3055,7 @@
         <v>775</v>
       </c>
       <c r="O31" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P31">
         <v>0.3</v>
@@ -3030,7 +3069,7 @@
         <v>45</v>
       </c>
       <c r="T31" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="4"/>
@@ -3043,7 +3082,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-31", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 47, max_health = 950, mining_speed = 124, resource_searching_radius = 61.49, energy_usage = "800kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-31", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 47, max_health = 950, mining_speed = 124, resource_searching_radius = 61.49, energy_usage = "800kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -3052,7 +3091,7 @@
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F32">
         <v>47</v>
@@ -3083,7 +3122,7 @@
         <v>800</v>
       </c>
       <c r="O32" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P32">
         <v>0.31</v>
@@ -3097,7 +3136,7 @@
         <v>46.5</v>
       </c>
       <c r="T32" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="4"/>
@@ -3110,7 +3149,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-32", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 48.5, max_health = 975, mining_speed = 132, resource_searching_radius = 63.49, energy_usage = "825kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-32", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 48.5, max_health = 975, mining_speed = 132, resource_searching_radius = 63.49, energy_usage = "825kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -3119,7 +3158,7 @@
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F33">
         <v>48.5</v>
@@ -3150,7 +3189,7 @@
         <v>825</v>
       </c>
       <c r="O33" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P33">
         <v>0.32</v>
@@ -3164,7 +3203,7 @@
         <v>48</v>
       </c>
       <c r="T33" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="4"/>
@@ -3177,7 +3216,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-33", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 50, max_health = 1000, mining_speed = 140.25, resource_searching_radius = 65.49, energy_usage = "850kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-33", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 50, max_health = 1000, mining_speed = 140.25, resource_searching_radius = 65.49, energy_usage = "850kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -3186,7 +3225,7 @@
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F34">
         <v>50</v>
@@ -3217,7 +3256,7 @@
         <v>850</v>
       </c>
       <c r="O34" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P34">
         <v>0.33</v>
@@ -3231,7 +3270,7 @@
         <v>49.5</v>
       </c>
       <c r="T34" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="4"/>
@@ -3244,7 +3283,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-34", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 51.5, max_health = 1025, mining_speed = 148.75, resource_searching_radius = 67.49, energy_usage = "875kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-34", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 51.5, max_health = 1025, mining_speed = 148.75, resource_searching_radius = 67.49, energy_usage = "875kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -3253,7 +3292,7 @@
         <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F35">
         <v>51.5</v>
@@ -3284,7 +3323,7 @@
         <v>875</v>
       </c>
       <c r="O35" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P35">
         <v>0.34</v>
@@ -3298,7 +3337,7 @@
         <v>51.000000000000007</v>
       </c>
       <c r="T35" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="4"/>
@@ -3311,7 +3350,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-35", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 53, max_health = 1050, mining_speed = 157.5, resource_searching_radius = 69.49, energy_usage = "900kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-35", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 53, max_health = 1050, mining_speed = 157.5, resource_searching_radius = 69.49, energy_usage = "900kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -3320,7 +3359,7 @@
         <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F36">
         <v>53</v>
@@ -3351,7 +3390,7 @@
         <v>900</v>
       </c>
       <c r="O36" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P36">
         <v>0.35</v>
@@ -3365,7 +3404,7 @@
         <v>52.5</v>
       </c>
       <c r="T36" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="4"/>
@@ -3378,7 +3417,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-36", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 54.5, max_health = 1075, mining_speed = 166.5, resource_searching_radius = 71.49, energy_usage = "925kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-36", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 54.5, max_health = 1075, mining_speed = 166.5, resource_searching_radius = 71.49, energy_usage = "925kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -3387,7 +3426,7 @@
         <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F37">
         <v>54.5</v>
@@ -3418,7 +3457,7 @@
         <v>925</v>
       </c>
       <c r="O37" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P37">
         <v>0.36</v>
@@ -3432,7 +3471,7 @@
         <v>54</v>
       </c>
       <c r="T37" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="4"/>
@@ -3445,7 +3484,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-37", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 56, max_health = 1100, mining_speed = 175.75, resource_searching_radius = 73.49, energy_usage = "950kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-37", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 56, max_health = 1100, mining_speed = 175.75, resource_searching_radius = 73.49, energy_usage = "950kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -3454,7 +3493,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F38">
         <v>56</v>
@@ -3485,7 +3524,7 @@
         <v>950</v>
       </c>
       <c r="O38" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P38">
         <v>0.37</v>
@@ -3499,7 +3538,7 @@
         <v>55.5</v>
       </c>
       <c r="T38" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="4"/>
@@ -3512,7 +3551,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-38", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 57.5, max_health = 1125, mining_speed = 185.25, resource_searching_radius = 75.49, energy_usage = "975kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-38", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 57.5, max_health = 1125, mining_speed = 185.25, resource_searching_radius = 75.49, energy_usage = "975kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -3521,7 +3560,7 @@
         <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F39">
         <v>57.5</v>
@@ -3552,7 +3591,7 @@
         <v>975</v>
       </c>
       <c r="O39" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P39">
         <v>0.38</v>
@@ -3566,7 +3605,7 @@
         <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="4"/>
@@ -3579,7 +3618,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-39", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 59, max_health = 1150, mining_speed = 195, resource_searching_radius = 77.49, energy_usage = "1000kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-39", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 59, max_health = 1150, mining_speed = 195, resource_searching_radius = 77.49, energy_usage = "1000kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -3588,7 +3627,7 @@
         <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F40">
         <v>59</v>
@@ -3619,7 +3658,7 @@
         <v>1000</v>
       </c>
       <c r="O40" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P40">
         <v>0.39</v>
@@ -3633,7 +3672,7 @@
         <v>58.5</v>
       </c>
       <c r="T40" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="4"/>
@@ -3646,7 +3685,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-40", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 60.5, max_health = 1175, mining_speed = 205, resource_searching_radius = 79.49, energy_usage = "1025kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-40", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 60.5, max_health = 1175, mining_speed = 205, resource_searching_radius = 79.49, energy_usage = "1025kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -3655,7 +3694,7 @@
         <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F41">
         <v>60.5</v>
@@ -3686,7 +3725,7 @@
         <v>1025</v>
       </c>
       <c r="O41" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P41">
         <v>0.4</v>
@@ -3700,7 +3739,7 @@
         <v>60</v>
       </c>
       <c r="T41" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="4"/>
@@ -3713,7 +3752,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-41", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 62, max_health = 1200, mining_speed = 215.25, resource_searching_radius = 81.49, energy_usage = "1050kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-41", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 62, max_health = 1200, mining_speed = 215.25, resource_searching_radius = 81.49, energy_usage = "1050kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -3722,7 +3761,7 @@
         <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F42">
         <v>62</v>
@@ -3753,7 +3792,7 @@
         <v>1050</v>
       </c>
       <c r="O42" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P42">
         <v>0.41</v>
@@ -3767,7 +3806,7 @@
         <v>61.499999999999993</v>
       </c>
       <c r="T42" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="4"/>
@@ -3780,7 +3819,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-42", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 63.5, max_health = 1225, mining_speed = 225.75, resource_searching_radius = 83.49, energy_usage = "1075kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-42", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 63.5, max_health = 1225, mining_speed = 225.75, resource_searching_radius = 83.49, energy_usage = "1075kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -3789,7 +3828,7 @@
         <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F43">
         <v>63.5</v>
@@ -3820,7 +3859,7 @@
         <v>1075</v>
       </c>
       <c r="O43" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P43">
         <v>0.42</v>
@@ -3834,7 +3873,7 @@
         <v>63</v>
       </c>
       <c r="T43" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="4"/>
@@ -3847,7 +3886,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-43", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 65, max_health = 1250, mining_speed = 236.5, resource_searching_radius = 85.49, energy_usage = "1100kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-43", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 65, max_health = 1250, mining_speed = 236.5, resource_searching_radius = 85.49, energy_usage = "1100kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -3856,7 +3895,7 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F44">
         <v>65</v>
@@ -3887,7 +3926,7 @@
         <v>1100</v>
       </c>
       <c r="O44" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P44">
         <v>0.43</v>
@@ -3901,7 +3940,7 @@
         <v>64.5</v>
       </c>
       <c r="T44" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" si="4"/>
@@ -3914,7 +3953,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-44", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 66.5, max_health = 1275, mining_speed = 247.5, resource_searching_radius = 87.49, energy_usage = "1125kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-44", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 66.5, max_health = 1275, mining_speed = 247.5, resource_searching_radius = 87.49, energy_usage = "1125kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -3923,7 +3962,7 @@
         <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F45">
         <v>66.5</v>
@@ -3954,7 +3993,7 @@
         <v>1125</v>
       </c>
       <c r="O45" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P45">
         <v>0.44</v>
@@ -3968,7 +4007,7 @@
         <v>66</v>
       </c>
       <c r="T45" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="4"/>
@@ -3981,7 +4020,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-45", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 68, max_health = 1300, mining_speed = 258.75, resource_searching_radius = 89.49, energy_usage = "1150kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-45", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 68, max_health = 1300, mining_speed = 258.75, resource_searching_radius = 89.49, energy_usage = "1150kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -3990,7 +4029,7 @@
         <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F46">
         <v>68</v>
@@ -4021,7 +4060,7 @@
         <v>1150</v>
       </c>
       <c r="O46" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P46">
         <v>0.45</v>
@@ -4035,7 +4074,7 @@
         <v>67.5</v>
       </c>
       <c r="T46" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="4"/>
@@ -4048,7 +4087,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-46", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 69.5, max_health = 1325, mining_speed = 270.25, resource_searching_radius = 91.49, energy_usage = "1175kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-46", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 69.5, max_health = 1325, mining_speed = 270.25, resource_searching_radius = 91.49, energy_usage = "1175kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -4057,7 +4096,7 @@
         <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F47">
         <v>69.5</v>
@@ -4088,7 +4127,7 @@
         <v>1175</v>
       </c>
       <c r="O47" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P47">
         <v>0.46</v>
@@ -4102,7 +4141,7 @@
         <v>69</v>
       </c>
       <c r="T47" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="4"/>
@@ -4115,7 +4154,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-47", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 71, max_health = 1350, mining_speed = 282, resource_searching_radius = 93.49, energy_usage = "1200kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-47", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 71, max_health = 1350, mining_speed = 282, resource_searching_radius = 93.49, energy_usage = "1200kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -4124,7 +4163,7 @@
         <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F48">
         <v>71</v>
@@ -4155,7 +4194,7 @@
         <v>1200</v>
       </c>
       <c r="O48" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P48">
         <v>0.47</v>
@@ -4169,7 +4208,7 @@
         <v>70.5</v>
       </c>
       <c r="T48" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="4"/>
@@ -4182,7 +4221,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-48", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 72.5, max_health = 1375, mining_speed = 294, resource_searching_radius = 95.49, energy_usage = "1225kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-48", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 72.5, max_health = 1375, mining_speed = 294, resource_searching_radius = 95.49, energy_usage = "1225kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -4191,7 +4230,7 @@
         <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F49">
         <v>72.5</v>
@@ -4222,7 +4261,7 @@
         <v>1225</v>
       </c>
       <c r="O49" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P49">
         <v>0.48</v>
@@ -4236,7 +4275,7 @@
         <v>72</v>
       </c>
       <c r="T49" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="4"/>
@@ -4249,7 +4288,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-49", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 74, max_health = 1400, mining_speed = 306.25, resource_searching_radius = 97.49, energy_usage = "1250kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-49", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 74, max_health = 1400, mining_speed = 306.25, resource_searching_radius = 97.49, energy_usage = "1250kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -4258,7 +4297,7 @@
         <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F50">
         <v>74</v>
@@ -4289,7 +4328,7 @@
         <v>1250</v>
       </c>
       <c r="O50" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P50">
         <v>0.49</v>
@@ -4303,7 +4342,7 @@
         <v>73.5</v>
       </c>
       <c r="T50" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="U50" t="str">
         <f t="shared" si="4"/>
@@ -4316,7 +4355,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-50", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill-1.png", mining_power = 75.5, max_health = 1425, mining_speed = 318.75, resource_searching_radius = 99.49, energy_usage = "1275kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { north = { priority = "extra-high", width = 110, height = 114, line_length = 8, shift = {0.2, -0.2}, filename = "__base__/graphics/entity/basic-mining-drill/north.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, east = { priority = "extra-high", width = 129, height = 100, line_length = 8, shift = {0.45, 0}, filename = "__base__/graphics/entity/basic-mining-drill/east.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, south = { priority = "extra-high", width = 109, height = 111, line_length = 8, shift = {0.15, 0}, filename = "__base__/graphics/entity/basic-mining-drill/south.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", }, west = { priority = "extra-high", width = 128, height = 100, line_length = 8, shift = {0.25, 0}, filename = "__base__/graphics/entity/basic-mining-drill/west.png", frame_count = 64, animation_speed = 0.5, run_mode = "forward-then-backward", } }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
+        <v xml:space="preserve">{ type = "mining-drill", name = "cursed-drill-50", icon = "__Cursed-Exp__/graphics/icons/drill/cursed-drill.jpg", mining_power = 75.5, max_health = 1425, mining_speed = 318.75, resource_searching_radius = 99.49, energy_usage = "1275kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -4325,7 +4364,7 @@
         <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="F51">
         <v>75.5</v>
@@ -4356,7 +4395,7 @@
         <v>1275</v>
       </c>
       <c r="O51" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="P51">
         <v>0.5</v>
@@ -4370,7 +4409,7 @@
         <v>75</v>
       </c>
       <c r="T51" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="U51" t="str">
         <f t="shared" si="4"/>
@@ -4415,577 +4454,2481 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B12:H125"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE(C2,D2,E2,F2,G2,H2,I2,J2,K2)</f>
+        <v>{ type = "turret", name = "cursed-turret-1", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 200, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 7.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 3 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2">
+        <f>175+A2*25</f>
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2">
+        <f>7+A2/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2">
+        <f>A2*3</f>
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" t="str">
+        <f>CONCATENATE(D2," = ",M2)</f>
+        <v>cursed-turret-1 = Sunken Colony - Level 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B51" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3,I3,J3,K3)</f>
+        <v>{ type = "turret", name = "cursed-turret-2", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 225, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 8, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 6 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3">
+        <f>175+A3*25</f>
+        <v>225</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3">
+        <f>7+A3/2</f>
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3">
+        <f>A3*3</f>
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N51" si="1">CONCATENATE(D3," = ",M3)</f>
+        <v>cursed-turret-2 = Sunken Colony - Level 2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-3", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 250, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 8.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 9 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F51" si="2">175+A4*25</f>
+        <v>250</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4">
+        <f>7+A4/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4">
+        <f>A4*3</f>
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-3 = Sunken Colony - Level 3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-4", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 275, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 9, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 12 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H51" si="3">7+A5/2</f>
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J51" si="4">A5*3</f>
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>173</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-4 = Sunken Colony - Level 4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-5", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 300, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 9.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 15 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-5 = Sunken Colony - Level 5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-6", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 325, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 10, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 18 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>175</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-6 = Sunken Colony - Level 6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-7", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 350, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 10.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 21 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-7 = Sunken Colony - Level 7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-8", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 375, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 11, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 24 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-8 = Sunken Colony - Level 8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-9", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 400, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 11.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 27 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>178</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-9 = Sunken Colony - Level 9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-10", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 425, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 12, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 30 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>425</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>179</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-10 = Sunken Colony - Level 10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-11", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 450, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 12.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 33 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="G12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>180</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-11 = Sunken Colony - Level 11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-12", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 475, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 13, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 36 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>475</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-12 = Sunken Colony - Level 12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-13", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 500, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 13.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 39 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>182</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-13 = Sunken Colony - Level 13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-14", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 525, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 14, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 42 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>525</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-14 = Sunken Colony - Level 14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-15", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 550, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 14.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 45 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" t="s">
+        <v>184</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-15 = Sunken Colony - Level 15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-16", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 575, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 15, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 48 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="K17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
+        <v>185</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-16 = Sunken Colony - Level 16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-17", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 600, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 15.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 51 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="K18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" t="s">
+        <v>186</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-17 = Sunken Colony - Level 17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-18", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 625, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 16, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 54 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" t="s">
+        <v>187</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-18 = Sunken Colony - Level 18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-19", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 650, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 16.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 57 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>650</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K20" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s">
+        <v>188</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-19 = Sunken Colony - Level 19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-20", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 675, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 17, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 60 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>675</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="K21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" t="s">
+        <v>189</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-20 = Sunken Colony - Level 20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-21", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 700, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 17.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 63 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="G22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="K22" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>190</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-21 = Sunken Colony - Level 21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-22", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 725, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 18, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 66 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>725</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="K23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>191</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-22 = Sunken Colony - Level 22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-23", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 750, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 18.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 69 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>18.5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="K24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" t="s">
+        <v>192</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-23 = Sunken Colony - Level 23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-24", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 775, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 19, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 72 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>775</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="K25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" t="s">
+        <v>193</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-24 = Sunken Colony - Level 24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-25", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 800, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 19.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 75 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="G26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>19.5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="K26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s">
+        <v>194</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-25 = Sunken Colony - Level 25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-26", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 825, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 20, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 78 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>825</v>
+      </c>
+      <c r="G27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="K27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" t="s">
+        <v>195</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-26 = Sunken Colony - Level 26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-27", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 850, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 20.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 81 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+      <c r="G28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>20.5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="K28" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" t="s">
+        <v>196</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-27 = Sunken Colony - Level 27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-28", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 875, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 21, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 84 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>875</v>
+      </c>
+      <c r="G29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="K29" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s">
+        <v>197</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-28 = Sunken Colony - Level 28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-29", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 900, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 21.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 87 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="K30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" t="s">
+        <v>198</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-29 = Sunken Colony - Level 29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-30", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 925, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 22, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 90 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>925</v>
+      </c>
+      <c r="G31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="K31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" t="s">
+        <v>199</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-30 = Sunken Colony - Level 30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-31", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 950, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 22.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 93 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="G32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="K32" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" t="s">
+        <v>200</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-31 = Sunken Colony - Level 31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-32", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 975, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 23, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 96 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>975</v>
+      </c>
+      <c r="G33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
+      <c r="K33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" t="s">
+        <v>201</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-32 = Sunken Colony - Level 32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-33", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1000, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 23.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 99 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>23.5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
+      <c r="K34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" t="s">
+        <v>202</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-33 = Sunken Colony - Level 33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-34", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1025, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 24, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 102 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>1025</v>
+      </c>
+      <c r="G35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G57" t="s">
+      <c r="K35" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" t="s">
+        <v>203</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-34 = Sunken Colony - Level 34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-35", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1050, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 24.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 105 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="G36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>24.5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G61" t="s">
+      <c r="K36" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" t="s">
+        <v>204</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-35 = Sunken Colony - Level 35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-36", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1075, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 25, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 108 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>1075</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H64" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H65" t="s">
+      <c r="K37" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" t="s">
+        <v>205</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-36 = Sunken Colony - Level 36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-37", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1100, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 25.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 111 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="G38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H66" t="s">
+      <c r="K38" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" t="s">
+        <v>206</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-37 = Sunken Colony - Level 37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-38", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1125, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 26, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 114 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C39" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G68" t="s">
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F70" t="s">
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>1125</v>
+      </c>
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="K39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" t="s">
+        <v>207</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-38 = Sunken Colony - Level 38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-39", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1150, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 26.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 117 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+      <c r="G40" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>26.5</v>
+      </c>
+      <c r="I40" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="J40">
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="K40" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s">
+        <v>208</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-39 = Sunken Colony - Level 39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-40", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1175, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 27, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 120 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>1175</v>
+      </c>
+      <c r="G41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I41" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="K41" t="s">
+        <v>117</v>
+      </c>
+      <c r="L41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" t="s">
+        <v>209</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-40 = Sunken Colony - Level 40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-41", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1200, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 27.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 123 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="G42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="K42" t="s">
+        <v>117</v>
+      </c>
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s">
+        <v>210</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-41 = Sunken Colony - Level 41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-42", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1225, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 28, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 126 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>1225</v>
+      </c>
+      <c r="G43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="K43" t="s">
+        <v>117</v>
+      </c>
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" t="s">
+        <v>211</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-42 = Sunken Colony - Level 42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-43", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1250, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 28.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 129 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="G44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>28.5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>116</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="K44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" t="s">
+        <v>212</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-43 = Sunken Colony - Level 43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-44", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1275, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 29, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 132 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>1275</v>
+      </c>
+      <c r="G45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="K45" t="s">
+        <v>117</v>
+      </c>
+      <c r="L45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" t="s">
+        <v>213</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-44 = Sunken Colony - Level 44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-45", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1300, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 29.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 135 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="G46" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>29.5</v>
+      </c>
+      <c r="I46" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="K46" t="s">
+        <v>117</v>
+      </c>
+      <c r="L46" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" t="s">
+        <v>214</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-45 = Sunken Colony - Level 45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-46", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1325, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 30, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 138 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>1325</v>
+      </c>
+      <c r="G47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+      <c r="K47" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" t="s">
+        <v>215</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-46 = Sunken Colony - Level 46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-47", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1350, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 30.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 141 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>1350</v>
+      </c>
+      <c r="G48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>30.5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+      <c r="K48" t="s">
+        <v>117</v>
+      </c>
+      <c r="L48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" t="s">
+        <v>216</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-47 = Sunken Colony - Level 47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-48", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1375, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 31, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 144 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>1375</v>
+      </c>
+      <c r="G49" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="I49" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+      <c r="K49" t="s">
+        <v>117</v>
+      </c>
+      <c r="L49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" t="s">
+        <v>217</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-48 = Sunken Colony - Level 48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-49", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1400, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 31.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 147 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>31.5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="K50" t="s">
+        <v>117</v>
+      </c>
+      <c r="L50" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" t="s">
+        <v>218</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-49 = Sunken Colony - Level 49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>{ type = "turret", name = "cursed-turret-50", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1425, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 32, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 150 , type = "physical"} } } } } } } } } },</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>1425</v>
+      </c>
+      <c r="G51" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="I51" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>104</v>
+      <c r="K51" t="s">
+        <v>117</v>
+      </c>
+      <c r="L51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" t="s">
+        <v>219</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="1"/>
+        <v>cursed-turret-50 = Sunken Colony - Level 50</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/creates/create buildings.xlsx
+++ b/prototypes/creates/create buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="20115" windowHeight="8250" tabRatio="413"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="20115" windowHeight="8250" tabRatio="413" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mining-drill" sheetId="1" r:id="rId1"/>
@@ -363,9 +363,6 @@
     <t xml:space="preserve">", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = </t>
   </si>
   <si>
-    <t xml:space="preserve">, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = </t>
-  </si>
-  <si>
     <t xml:space="preserve">, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = </t>
   </si>
   <si>
@@ -682,6 +679,9 @@
   </si>
   <si>
     <t xml:space="preserve">kW", order = "b-m-d", energy_source = { type = "electric", emissions = -1/5, usage_priority = "secondary-input" }, flags = {"placeable-player", "not-repairable", "breaths-air"}, minable = {mining_time = 1, result = "cursed-drill-1"}, module_slots = 0, resource_categories = {"basic-solid"}, corpse = "big-remnants", collision_box = {{ -1.4, -1.4}, {1.4, 1.4}}, selection_box = {{ -1.5, -1.5}, {1.5, 1.5}}, working_sound = { sound = { filename = "__base__/sound/electric-mining-drill.ogg", volume = 0.75 }, apparent_volume = 1.5, }, animations = { filename = "__Cursed-Exp__/graphics/entities/drill/cursed-drill.png", priority = "high", width = 128, height = 136, frame_count = 4, line_length = 4, animation_speed = 0.05, scale = 0.8, shift = {0, -0.5} }, vector_to_place_result = {0, -1.85}, radius_visualisation_picture = { filename = "__base__/graphics/entity/basic-mining-drill/mining-drill-radius-visualization.png", width = 12, height = 12 } }, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = </t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B2:B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1112,7 +1112,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P2">
         <v>0.01</v>
@@ -1148,7 +1148,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3">
         <v>3.5</v>
@@ -1179,7 +1179,7 @@
         <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P3">
         <v>0.02</v>
@@ -1215,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1246,7 +1246,7 @@
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P4">
         <v>0.03</v>
@@ -1282,7 +1282,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F5">
         <v>6.5</v>
@@ -1313,7 +1313,7 @@
         <v>125</v>
       </c>
       <c r="O5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P5">
         <v>0.04</v>
@@ -1349,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -1380,7 +1380,7 @@
         <v>150</v>
       </c>
       <c r="O6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P6">
         <v>0.05</v>
@@ -1416,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F7">
         <v>9.5</v>
@@ -1447,7 +1447,7 @@
         <v>175</v>
       </c>
       <c r="O7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P7">
         <v>0.06</v>
@@ -1483,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F8">
         <v>11</v>
@@ -1514,7 +1514,7 @@
         <v>200</v>
       </c>
       <c r="O8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P8">
         <v>7.0000000000000007E-2</v>
@@ -1550,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9">
         <v>12.5</v>
@@ -1581,7 +1581,7 @@
         <v>225</v>
       </c>
       <c r="O9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P9">
         <v>0.08</v>
@@ -1617,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F10">
         <v>14</v>
@@ -1648,7 +1648,7 @@
         <v>250</v>
       </c>
       <c r="O10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P10">
         <v>0.09</v>
@@ -1684,7 +1684,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F11">
         <v>15.5</v>
@@ -1715,7 +1715,7 @@
         <v>275</v>
       </c>
       <c r="O11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P11">
         <v>0.1</v>
@@ -1751,7 +1751,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F12">
         <v>17</v>
@@ -1782,7 +1782,7 @@
         <v>300</v>
       </c>
       <c r="O12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P12">
         <v>0.11</v>
@@ -1818,7 +1818,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F13">
         <v>18.5</v>
@@ -1849,7 +1849,7 @@
         <v>325</v>
       </c>
       <c r="O13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P13">
         <v>0.12</v>
@@ -1885,7 +1885,7 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1916,7 +1916,7 @@
         <v>350</v>
       </c>
       <c r="O14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P14">
         <v>0.13</v>
@@ -1952,7 +1952,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F15">
         <v>21.5</v>
@@ -1983,7 +1983,7 @@
         <v>375</v>
       </c>
       <c r="O15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P15">
         <v>0.14000000000000001</v>
@@ -2019,7 +2019,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16">
         <v>23</v>
@@ -2050,7 +2050,7 @@
         <v>400</v>
       </c>
       <c r="O16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P16">
         <v>0.15</v>
@@ -2086,7 +2086,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17">
         <v>24.5</v>
@@ -2117,7 +2117,7 @@
         <v>425</v>
       </c>
       <c r="O17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P17">
         <v>0.16</v>
@@ -2153,7 +2153,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F18">
         <v>26</v>
@@ -2184,7 +2184,7 @@
         <v>450</v>
       </c>
       <c r="O18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P18">
         <v>0.17</v>
@@ -2220,7 +2220,7 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F19">
         <v>27.5</v>
@@ -2251,7 +2251,7 @@
         <v>475</v>
       </c>
       <c r="O19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P19">
         <v>0.18</v>
@@ -2287,7 +2287,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20">
         <v>29</v>
@@ -2318,7 +2318,7 @@
         <v>500</v>
       </c>
       <c r="O20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P20">
         <v>0.19</v>
@@ -2354,7 +2354,7 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21">
         <v>30.5</v>
@@ -2385,7 +2385,7 @@
         <v>525</v>
       </c>
       <c r="O21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P21">
         <v>0.2</v>
@@ -2421,7 +2421,7 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F22">
         <v>32</v>
@@ -2452,7 +2452,7 @@
         <v>550</v>
       </c>
       <c r="O22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P22">
         <v>0.21</v>
@@ -2488,7 +2488,7 @@
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F23">
         <v>33.5</v>
@@ -2519,7 +2519,7 @@
         <v>575</v>
       </c>
       <c r="O23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P23">
         <v>0.22</v>
@@ -2555,7 +2555,7 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F24">
         <v>35</v>
@@ -2586,7 +2586,7 @@
         <v>600</v>
       </c>
       <c r="O24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P24">
         <v>0.23</v>
@@ -2622,7 +2622,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F25">
         <v>36.5</v>
@@ -2653,7 +2653,7 @@
         <v>625</v>
       </c>
       <c r="O25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P25">
         <v>0.24</v>
@@ -2689,7 +2689,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F26">
         <v>38</v>
@@ -2720,7 +2720,7 @@
         <v>650</v>
       </c>
       <c r="O26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P26">
         <v>0.25</v>
@@ -2756,7 +2756,7 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F27">
         <v>39.5</v>
@@ -2787,7 +2787,7 @@
         <v>675</v>
       </c>
       <c r="O27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P27">
         <v>0.26</v>
@@ -2823,7 +2823,7 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F28">
         <v>41</v>
@@ -2854,7 +2854,7 @@
         <v>700</v>
       </c>
       <c r="O28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P28">
         <v>0.27</v>
@@ -2890,7 +2890,7 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F29">
         <v>42.5</v>
@@ -2921,7 +2921,7 @@
         <v>725</v>
       </c>
       <c r="O29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P29">
         <v>0.28000000000000003</v>
@@ -2957,7 +2957,7 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F30">
         <v>44</v>
@@ -2988,7 +2988,7 @@
         <v>750</v>
       </c>
       <c r="O30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P30">
         <v>0.28999999999999998</v>
@@ -3024,7 +3024,7 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F31">
         <v>45.5</v>
@@ -3055,7 +3055,7 @@
         <v>775</v>
       </c>
       <c r="O31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P31">
         <v>0.3</v>
@@ -3091,7 +3091,7 @@
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F32">
         <v>47</v>
@@ -3122,7 +3122,7 @@
         <v>800</v>
       </c>
       <c r="O32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P32">
         <v>0.31</v>
@@ -3158,7 +3158,7 @@
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F33">
         <v>48.5</v>
@@ -3189,7 +3189,7 @@
         <v>825</v>
       </c>
       <c r="O33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P33">
         <v>0.32</v>
@@ -3225,7 +3225,7 @@
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F34">
         <v>50</v>
@@ -3256,7 +3256,7 @@
         <v>850</v>
       </c>
       <c r="O34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P34">
         <v>0.33</v>
@@ -3292,7 +3292,7 @@
         <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F35">
         <v>51.5</v>
@@ -3323,7 +3323,7 @@
         <v>875</v>
       </c>
       <c r="O35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P35">
         <v>0.34</v>
@@ -3359,7 +3359,7 @@
         <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F36">
         <v>53</v>
@@ -3390,7 +3390,7 @@
         <v>900</v>
       </c>
       <c r="O36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P36">
         <v>0.35</v>
@@ -3426,7 +3426,7 @@
         <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F37">
         <v>54.5</v>
@@ -3457,7 +3457,7 @@
         <v>925</v>
       </c>
       <c r="O37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P37">
         <v>0.36</v>
@@ -3493,7 +3493,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F38">
         <v>56</v>
@@ -3524,7 +3524,7 @@
         <v>950</v>
       </c>
       <c r="O38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P38">
         <v>0.37</v>
@@ -3560,7 +3560,7 @@
         <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F39">
         <v>57.5</v>
@@ -3591,7 +3591,7 @@
         <v>975</v>
       </c>
       <c r="O39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P39">
         <v>0.38</v>
@@ -3627,7 +3627,7 @@
         <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F40">
         <v>59</v>
@@ -3658,7 +3658,7 @@
         <v>1000</v>
       </c>
       <c r="O40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P40">
         <v>0.39</v>
@@ -3694,7 +3694,7 @@
         <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F41">
         <v>60.5</v>
@@ -3725,7 +3725,7 @@
         <v>1025</v>
       </c>
       <c r="O41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P41">
         <v>0.4</v>
@@ -3761,7 +3761,7 @@
         <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F42">
         <v>62</v>
@@ -3792,7 +3792,7 @@
         <v>1050</v>
       </c>
       <c r="O42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P42">
         <v>0.41</v>
@@ -3828,7 +3828,7 @@
         <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F43">
         <v>63.5</v>
@@ -3859,7 +3859,7 @@
         <v>1075</v>
       </c>
       <c r="O43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P43">
         <v>0.42</v>
@@ -3895,7 +3895,7 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F44">
         <v>65</v>
@@ -3926,7 +3926,7 @@
         <v>1100</v>
       </c>
       <c r="O44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P44">
         <v>0.43</v>
@@ -3962,7 +3962,7 @@
         <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F45">
         <v>66.5</v>
@@ -3993,7 +3993,7 @@
         <v>1125</v>
       </c>
       <c r="O45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P45">
         <v>0.44</v>
@@ -4029,7 +4029,7 @@
         <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46">
         <v>68</v>
@@ -4060,7 +4060,7 @@
         <v>1150</v>
       </c>
       <c r="O46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P46">
         <v>0.45</v>
@@ -4096,7 +4096,7 @@
         <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F47">
         <v>69.5</v>
@@ -4127,7 +4127,7 @@
         <v>1175</v>
       </c>
       <c r="O47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P47">
         <v>0.46</v>
@@ -4163,7 +4163,7 @@
         <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F48">
         <v>71</v>
@@ -4194,7 +4194,7 @@
         <v>1200</v>
       </c>
       <c r="O48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P48">
         <v>0.47</v>
@@ -4230,7 +4230,7 @@
         <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F49">
         <v>72.5</v>
@@ -4261,7 +4261,7 @@
         <v>1225</v>
       </c>
       <c r="O49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P49">
         <v>0.48</v>
@@ -4297,7 +4297,7 @@
         <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F50">
         <v>74</v>
@@ -4328,7 +4328,7 @@
         <v>1250</v>
       </c>
       <c r="O50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P50">
         <v>0.49</v>
@@ -4364,7 +4364,7 @@
         <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F51">
         <v>75.5</v>
@@ -4395,7 +4395,7 @@
         <v>1275</v>
       </c>
       <c r="O51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P51">
         <v>0.5</v>
@@ -4456,8 +4456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B2:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4472,13 +4472,13 @@
         <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2,H2,I2,J2,K2)</f>
-        <v>{ type = "turret", name = "cursed-turret-1", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 200, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 7.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 3 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-1", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 200, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 7.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 3 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -4503,27 +4503,27 @@
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="H2">
         <f>7+A2/2</f>
         <v>7.5</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2">
         <f>A2*3</f>
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE(D2," = ",M2)</f>
@@ -4536,13 +4536,13 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B51" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3,I3,J3,K3)</f>
-        <v>{ type = "turret", name = "cursed-turret-2", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 225, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 8, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 6 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-2", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 225, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 8, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 6 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C3" t="s">
         <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>114</v>
@@ -4552,27 +4552,27 @@
         <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="H3">
         <f>7+A3/2</f>
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J3">
         <f>A3*3</f>
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N51" si="1">CONCATENATE(D3," = ",M3)</f>
@@ -4585,13 +4585,13 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-3", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 250, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 8.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 9 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-3", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 250, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 8.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 9 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C4" t="s">
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
         <v>114</v>
@@ -4601,27 +4601,27 @@
         <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="H4">
         <f>7+A4/2</f>
         <v>8.5</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4">
         <f>A4*3</f>
         <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="1"/>
@@ -4634,13 +4634,13 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-4", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 275, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 9, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 12 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-4", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 275, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 9, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 12 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C5" t="s">
         <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
         <v>114</v>
@@ -4650,27 +4650,27 @@
         <v>275</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H51" si="3">7+A5/2</f>
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J51" si="4">A5*3</f>
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="1"/>
@@ -4683,13 +4683,13 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-5", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 300, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 9.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 15 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-5", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 300, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 9.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 15 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C6" t="s">
         <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
         <v>114</v>
@@ -4699,27 +4699,27 @@
         <v>300</v>
       </c>
       <c r="G6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="I6" t="s">
         <v>115</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>9.5</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
         <v>116</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>117</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="1"/>
@@ -4732,13 +4732,13 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-6", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 325, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 10, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 18 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-6", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 325, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 10, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 18 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C7" t="s">
         <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>114</v>
@@ -4748,27 +4748,27 @@
         <v>325</v>
       </c>
       <c r="G7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
         <v>115</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
         <v>116</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>117</v>
       </c>
       <c r="L7" t="s">
         <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="1"/>
@@ -4781,13 +4781,13 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-7", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 350, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 10.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 21 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-7", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 350, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 10.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 21 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C8" t="s">
         <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
         <v>114</v>
@@ -4797,27 +4797,27 @@
         <v>350</v>
       </c>
       <c r="G8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="I8" t="s">
         <v>115</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>10.5</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
         <v>116</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>117</v>
       </c>
       <c r="L8" t="s">
         <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="1"/>
@@ -4830,13 +4830,13 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-8", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 375, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 11, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 24 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-8", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 375, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 11, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 24 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
         <v>114</v>
@@ -4846,27 +4846,27 @@
         <v>375</v>
       </c>
       <c r="G9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
         <v>115</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
         <v>116</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>117</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="1"/>
@@ -4879,13 +4879,13 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-9", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 400, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 11.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 27 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-9", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 400, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 11.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 27 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
         <v>114</v>
@@ -4895,27 +4895,27 @@
         <v>400</v>
       </c>
       <c r="G10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="I10" t="s">
         <v>115</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>11.5</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
         <v>116</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>117</v>
       </c>
       <c r="L10" t="s">
         <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="1"/>
@@ -4928,13 +4928,13 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-10", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 425, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 12, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 30 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-10", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 425, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 12, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 30 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
         <v>114</v>
@@ -4944,27 +4944,27 @@
         <v>425</v>
       </c>
       <c r="G11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
         <v>115</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
         <v>116</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>117</v>
       </c>
       <c r="L11" t="s">
         <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="1"/>
@@ -4977,13 +4977,13 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-11", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 450, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 12.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 33 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-11", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 450, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 12.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 33 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C12" t="s">
         <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
         <v>114</v>
@@ -4993,27 +4993,27 @@
         <v>450</v>
       </c>
       <c r="G12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="I12" t="s">
         <v>115</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
         <v>116</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="K12" t="s">
-        <v>117</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="1"/>
@@ -5026,13 +5026,13 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-12", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 475, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 13, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 36 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-12", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 475, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 13, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 36 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C13" t="s">
         <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
         <v>114</v>
@@ -5042,27 +5042,27 @@
         <v>475</v>
       </c>
       <c r="G13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
         <v>115</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
         <v>116</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="K13" t="s">
-        <v>117</v>
       </c>
       <c r="L13" t="s">
         <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="1"/>
@@ -5075,13 +5075,13 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-13", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 500, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 13.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 39 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-13", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 500, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 13.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 39 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C14" t="s">
         <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
         <v>114</v>
@@ -5091,27 +5091,27 @@
         <v>500</v>
       </c>
       <c r="G14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="I14" t="s">
         <v>115</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>13.5</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
         <v>116</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="K14" t="s">
-        <v>117</v>
       </c>
       <c r="L14" t="s">
         <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="1"/>
@@ -5124,13 +5124,13 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-14", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 525, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 14, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 42 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-14", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 525, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 14, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 42 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C15" t="s">
         <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
         <v>114</v>
@@ -5140,27 +5140,27 @@
         <v>525</v>
       </c>
       <c r="G15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
         <v>115</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
         <v>116</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K15" t="s">
-        <v>117</v>
       </c>
       <c r="L15" t="s">
         <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="1"/>
@@ -5173,13 +5173,13 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-15", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 550, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 14.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 45 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-15", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 550, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 14.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 45 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C16" t="s">
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>114</v>
@@ -5189,27 +5189,27 @@
         <v>550</v>
       </c>
       <c r="G16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="I16" t="s">
         <v>115</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>14.5</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
         <v>116</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="K16" t="s">
-        <v>117</v>
       </c>
       <c r="L16" t="s">
         <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="1"/>
@@ -5222,13 +5222,13 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-16", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 575, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 15, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 48 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-16", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 575, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 15, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 48 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
         <v>114</v>
@@ -5238,27 +5238,27 @@
         <v>575</v>
       </c>
       <c r="G17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
         <v>115</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="K17" t="s">
         <v>116</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="K17" t="s">
-        <v>117</v>
       </c>
       <c r="L17" t="s">
         <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="1"/>
@@ -5271,13 +5271,13 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-17", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 600, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 15.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 51 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-17", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 600, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 15.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 51 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C18" t="s">
         <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
         <v>114</v>
@@ -5287,27 +5287,27 @@
         <v>600</v>
       </c>
       <c r="G18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="I18" t="s">
         <v>115</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>15.5</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="K18" t="s">
         <v>116</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="K18" t="s">
-        <v>117</v>
       </c>
       <c r="L18" t="s">
         <v>24</v>
       </c>
       <c r="M18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="1"/>
@@ -5320,13 +5320,13 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-18", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 625, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 16, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 54 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-18", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 625, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 16, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 54 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C19" t="s">
         <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
         <v>114</v>
@@ -5336,27 +5336,27 @@
         <v>625</v>
       </c>
       <c r="G19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
         <v>115</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
         <v>116</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-      <c r="K19" t="s">
-        <v>117</v>
       </c>
       <c r="L19" t="s">
         <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="1"/>
@@ -5369,13 +5369,13 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-19", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 650, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 16.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 57 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-19", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 650, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 16.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 57 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C20" t="s">
         <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
         <v>114</v>
@@ -5385,27 +5385,27 @@
         <v>650</v>
       </c>
       <c r="G20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+      <c r="I20" t="s">
         <v>115</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>16.5</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K20" t="s">
         <v>116</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="K20" t="s">
-        <v>117</v>
       </c>
       <c r="L20" t="s">
         <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="1"/>
@@ -5418,13 +5418,13 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-20", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 675, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 17, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 60 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-20", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 675, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 17, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 60 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C21" t="s">
         <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
         <v>114</v>
@@ -5434,27 +5434,27 @@
         <v>675</v>
       </c>
       <c r="G21" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
         <v>115</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="K21" t="s">
         <v>116</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="K21" t="s">
-        <v>117</v>
       </c>
       <c r="L21" t="s">
         <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="1"/>
@@ -5467,13 +5467,13 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-21", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 700, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 17.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 63 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-21", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 700, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 17.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 63 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C22" t="s">
         <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
         <v>114</v>
@@ -5483,27 +5483,27 @@
         <v>700</v>
       </c>
       <c r="G22" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+      <c r="I22" t="s">
         <v>115</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
-        <v>17.5</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="K22" t="s">
         <v>116</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
-      <c r="K22" t="s">
-        <v>117</v>
       </c>
       <c r="L22" t="s">
         <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="1"/>
@@ -5516,13 +5516,13 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-22", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 725, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 18, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 66 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-22", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 725, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 18, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 66 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C23" t="s">
         <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
         <v>114</v>
@@ -5532,27 +5532,27 @@
         <v>725</v>
       </c>
       <c r="G23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
         <v>115</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="K23" t="s">
         <v>116</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="K23" t="s">
-        <v>117</v>
       </c>
       <c r="L23" t="s">
         <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="1"/>
@@ -5565,13 +5565,13 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-23", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 750, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 18.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 69 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-23", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 750, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 18.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 69 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C24" t="s">
         <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
         <v>114</v>
@@ -5581,27 +5581,27 @@
         <v>750</v>
       </c>
       <c r="G24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>18.5</v>
+      </c>
+      <c r="I24" t="s">
         <v>115</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>18.5</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
         <v>116</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
-        <v>117</v>
       </c>
       <c r="L24" t="s">
         <v>24</v>
       </c>
       <c r="M24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="1"/>
@@ -5614,13 +5614,13 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-24", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 775, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 19, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 72 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-24", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 775, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 19, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 72 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C25" t="s">
         <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
         <v>114</v>
@@ -5630,27 +5630,27 @@
         <v>775</v>
       </c>
       <c r="G25" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
         <v>115</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="K25" t="s">
         <v>116</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="K25" t="s">
-        <v>117</v>
       </c>
       <c r="L25" t="s">
         <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="1"/>
@@ -5663,13 +5663,13 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-25", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 800, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 19.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 75 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-25", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 800, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 19.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 75 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C26" t="s">
         <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
         <v>114</v>
@@ -5679,27 +5679,27 @@
         <v>800</v>
       </c>
       <c r="G26" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>19.5</v>
+      </c>
+      <c r="I26" t="s">
         <v>115</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>19.5</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
         <v>116</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="K26" t="s">
-        <v>117</v>
       </c>
       <c r="L26" t="s">
         <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="1"/>
@@ -5712,13 +5712,13 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-26", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 825, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 20, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 78 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-26", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 825, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 20, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 78 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C27" t="s">
         <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
         <v>114</v>
@@ -5728,27 +5728,27 @@
         <v>825</v>
       </c>
       <c r="G27" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
         <v>115</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="K27" t="s">
         <v>116</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>78</v>
-      </c>
-      <c r="K27" t="s">
-        <v>117</v>
       </c>
       <c r="L27" t="s">
         <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="1"/>
@@ -5761,13 +5761,13 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-27", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 850, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 20.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 81 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-27", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 850, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 20.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 81 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C28" t="s">
         <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
         <v>114</v>
@@ -5777,27 +5777,27 @@
         <v>850</v>
       </c>
       <c r="G28" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>20.5</v>
+      </c>
+      <c r="I28" t="s">
         <v>115</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>20.5</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="K28" t="s">
         <v>116</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-      <c r="K28" t="s">
-        <v>117</v>
       </c>
       <c r="L28" t="s">
         <v>24</v>
       </c>
       <c r="M28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="1"/>
@@ -5810,13 +5810,13 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-28", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 875, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 21, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 84 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-28", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 875, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 21, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 84 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C29" t="s">
         <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
         <v>114</v>
@@ -5826,27 +5826,27 @@
         <v>875</v>
       </c>
       <c r="G29" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
         <v>115</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="K29" t="s">
         <v>116</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="K29" t="s">
-        <v>117</v>
       </c>
       <c r="L29" t="s">
         <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="1"/>
@@ -5859,13 +5859,13 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-29", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 900, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 21.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 87 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-29", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 900, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 21.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 87 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C30" t="s">
         <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
         <v>114</v>
@@ -5875,27 +5875,27 @@
         <v>900</v>
       </c>
       <c r="G30" t="s">
+        <v>221</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
+      </c>
+      <c r="I30" t="s">
         <v>115</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
-        <v>21.5</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="K30" t="s">
         <v>116</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="4"/>
-        <v>87</v>
-      </c>
-      <c r="K30" t="s">
-        <v>117</v>
       </c>
       <c r="L30" t="s">
         <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="1"/>
@@ -5908,13 +5908,13 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-30", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 925, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 22, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 90 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-30", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 925, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 22, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 90 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C31" t="s">
         <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
         <v>114</v>
@@ -5924,27 +5924,27 @@
         <v>925</v>
       </c>
       <c r="G31" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
         <v>115</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="K31" t="s">
         <v>116</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="K31" t="s">
-        <v>117</v>
       </c>
       <c r="L31" t="s">
         <v>24</v>
       </c>
       <c r="M31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="1"/>
@@ -5957,13 +5957,13 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-31", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 950, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 22.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 93 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-31", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 950, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 22.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 93 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C32" t="s">
         <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
         <v>114</v>
@@ -5973,27 +5973,27 @@
         <v>950</v>
       </c>
       <c r="G32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="I32" t="s">
         <v>115</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>22.5</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="K32" t="s">
         <v>116</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="4"/>
-        <v>93</v>
-      </c>
-      <c r="K32" t="s">
-        <v>117</v>
       </c>
       <c r="L32" t="s">
         <v>24</v>
       </c>
       <c r="M32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="1"/>
@@ -6006,13 +6006,13 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-32", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 975, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 23, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 96 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-32", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 975, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 23, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 96 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C33" t="s">
         <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
         <v>114</v>
@@ -6022,27 +6022,27 @@
         <v>975</v>
       </c>
       <c r="G33" t="s">
+        <v>221</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
         <v>115</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="K33" t="s">
         <v>116</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-      <c r="K33" t="s">
-        <v>117</v>
       </c>
       <c r="L33" t="s">
         <v>24</v>
       </c>
       <c r="M33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="1"/>
@@ -6055,13 +6055,13 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-33", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1000, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 23.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 99 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-33", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1000, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 23.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 99 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C34" t="s">
         <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
         <v>114</v>
@@ -6071,27 +6071,27 @@
         <v>1000</v>
       </c>
       <c r="G34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>23.5</v>
+      </c>
+      <c r="I34" t="s">
         <v>115</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="3"/>
-        <v>23.5</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="K34" t="s">
         <v>116</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="K34" t="s">
-        <v>117</v>
       </c>
       <c r="L34" t="s">
         <v>24</v>
       </c>
       <c r="M34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="1"/>
@@ -6104,13 +6104,13 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-34", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1025, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 24, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 102 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-34", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1025, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 24, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 102 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C35" t="s">
         <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
         <v>114</v>
@@ -6120,27 +6120,27 @@
         <v>1025</v>
       </c>
       <c r="G35" t="s">
+        <v>221</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
         <v>115</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="K35" t="s">
         <v>116</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="K35" t="s">
-        <v>117</v>
       </c>
       <c r="L35" t="s">
         <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="1"/>
@@ -6153,13 +6153,13 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-35", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1050, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 24.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 105 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-35", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1050, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 24.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 105 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C36" t="s">
         <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
         <v>114</v>
@@ -6169,27 +6169,27 @@
         <v>1050</v>
       </c>
       <c r="G36" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>24.5</v>
+      </c>
+      <c r="I36" t="s">
         <v>115</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="3"/>
-        <v>24.5</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="K36" t="s">
         <v>116</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="K36" t="s">
-        <v>117</v>
       </c>
       <c r="L36" t="s">
         <v>24</v>
       </c>
       <c r="M36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="1"/>
@@ -6202,13 +6202,13 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-36", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1075, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 25, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 108 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-36", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1075, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 25, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 108 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C37" t="s">
         <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
         <v>114</v>
@@ -6218,27 +6218,27 @@
         <v>1075</v>
       </c>
       <c r="G37" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
         <v>115</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="K37" t="s">
         <v>116</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-      <c r="K37" t="s">
-        <v>117</v>
       </c>
       <c r="L37" t="s">
         <v>24</v>
       </c>
       <c r="M37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="1"/>
@@ -6251,13 +6251,13 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-37", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1100, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 25.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 111 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-37", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1100, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 25.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 111 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C38" t="s">
         <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
         <v>114</v>
@@ -6267,27 +6267,27 @@
         <v>1100</v>
       </c>
       <c r="G38" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I38" t="s">
         <v>115</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="K38" t="s">
         <v>116</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="K38" t="s">
-        <v>117</v>
       </c>
       <c r="L38" t="s">
         <v>24</v>
       </c>
       <c r="M38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="1"/>
@@ -6300,13 +6300,13 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-38", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1125, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 26, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 114 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-38", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1125, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 26, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 114 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C39" t="s">
         <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
         <v>114</v>
@@ -6316,27 +6316,27 @@
         <v>1125</v>
       </c>
       <c r="G39" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
         <v>115</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="K39" t="s">
         <v>116</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="4"/>
-        <v>114</v>
-      </c>
-      <c r="K39" t="s">
-        <v>117</v>
       </c>
       <c r="L39" t="s">
         <v>24</v>
       </c>
       <c r="M39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="1"/>
@@ -6349,13 +6349,13 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-39", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1150, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 26.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 117 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-39", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1150, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 26.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 117 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C40" t="s">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
         <v>114</v>
@@ -6365,27 +6365,27 @@
         <v>1150</v>
       </c>
       <c r="G40" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>26.5</v>
+      </c>
+      <c r="I40" t="s">
         <v>115</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="3"/>
-        <v>26.5</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="K40" t="s">
         <v>116</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="4"/>
-        <v>117</v>
-      </c>
-      <c r="K40" t="s">
-        <v>117</v>
       </c>
       <c r="L40" t="s">
         <v>24</v>
       </c>
       <c r="M40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="1"/>
@@ -6398,13 +6398,13 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-40", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1175, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 27, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 120 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-40", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1175, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 27, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 120 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C41" t="s">
         <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
         <v>114</v>
@@ -6414,27 +6414,27 @@
         <v>1175</v>
       </c>
       <c r="G41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I41" t="s">
         <v>115</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="K41" t="s">
         <v>116</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="K41" t="s">
-        <v>117</v>
       </c>
       <c r="L41" t="s">
         <v>24</v>
       </c>
       <c r="M41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="1"/>
@@ -6447,13 +6447,13 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-41", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1200, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 27.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 123 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-41", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1200, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 27.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 123 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C42" t="s">
         <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
         <v>114</v>
@@ -6463,27 +6463,27 @@
         <v>1200</v>
       </c>
       <c r="G42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="I42" t="s">
         <v>115</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="3"/>
-        <v>27.5</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="K42" t="s">
         <v>116</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="4"/>
-        <v>123</v>
-      </c>
-      <c r="K42" t="s">
-        <v>117</v>
       </c>
       <c r="L42" t="s">
         <v>24</v>
       </c>
       <c r="M42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="1"/>
@@ -6496,13 +6496,13 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-42", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1225, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 28, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 126 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-42", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1225, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 28, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 126 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C43" t="s">
         <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s">
         <v>114</v>
@@ -6512,27 +6512,27 @@
         <v>1225</v>
       </c>
       <c r="G43" t="s">
+        <v>221</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
         <v>115</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="K43" t="s">
         <v>116</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="4"/>
-        <v>126</v>
-      </c>
-      <c r="K43" t="s">
-        <v>117</v>
       </c>
       <c r="L43" t="s">
         <v>24</v>
       </c>
       <c r="M43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="1"/>
@@ -6545,13 +6545,13 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-43", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1250, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 28.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 129 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-43", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1250, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 28.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 129 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C44" t="s">
         <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
         <v>114</v>
@@ -6561,27 +6561,27 @@
         <v>1250</v>
       </c>
       <c r="G44" t="s">
+        <v>221</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>28.5</v>
+      </c>
+      <c r="I44" t="s">
         <v>115</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="3"/>
-        <v>28.5</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="K44" t="s">
         <v>116</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="4"/>
-        <v>129</v>
-      </c>
-      <c r="K44" t="s">
-        <v>117</v>
       </c>
       <c r="L44" t="s">
         <v>24</v>
       </c>
       <c r="M44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="1"/>
@@ -6594,13 +6594,13 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-44", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1275, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 29, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 132 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-44", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1275, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 29, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 132 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C45" t="s">
         <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
         <v>114</v>
@@ -6610,27 +6610,27 @@
         <v>1275</v>
       </c>
       <c r="G45" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
         <v>115</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="K45" t="s">
         <v>116</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="4"/>
-        <v>132</v>
-      </c>
-      <c r="K45" t="s">
-        <v>117</v>
       </c>
       <c r="L45" t="s">
         <v>24</v>
       </c>
       <c r="M45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="1"/>
@@ -6643,13 +6643,13 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-45", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1300, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 29.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 135 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-45", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1300, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 29.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 135 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C46" t="s">
         <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
         <v>114</v>
@@ -6659,27 +6659,27 @@
         <v>1300</v>
       </c>
       <c r="G46" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>29.5</v>
+      </c>
+      <c r="I46" t="s">
         <v>115</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="3"/>
-        <v>29.5</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="K46" t="s">
         <v>116</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-      <c r="K46" t="s">
-        <v>117</v>
       </c>
       <c r="L46" t="s">
         <v>24</v>
       </c>
       <c r="M46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="1"/>
@@ -6692,13 +6692,13 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-46", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1325, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 30, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 138 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-46", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1325, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 30, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 138 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C47" t="s">
         <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
         <v>114</v>
@@ -6708,27 +6708,27 @@
         <v>1325</v>
       </c>
       <c r="G47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
         <v>115</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="K47" t="s">
         <v>116</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="4"/>
-        <v>138</v>
-      </c>
-      <c r="K47" t="s">
-        <v>117</v>
       </c>
       <c r="L47" t="s">
         <v>24</v>
       </c>
       <c r="M47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="1"/>
@@ -6741,13 +6741,13 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-47", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1350, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 30.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 141 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-47", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1350, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 30.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 141 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C48" t="s">
         <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
         <v>114</v>
@@ -6757,27 +6757,27 @@
         <v>1350</v>
       </c>
       <c r="G48" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>30.5</v>
+      </c>
+      <c r="I48" t="s">
         <v>115</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="3"/>
-        <v>30.5</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="K48" t="s">
         <v>116</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="4"/>
-        <v>141</v>
-      </c>
-      <c r="K48" t="s">
-        <v>117</v>
       </c>
       <c r="L48" t="s">
         <v>24</v>
       </c>
       <c r="M48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="1"/>
@@ -6790,13 +6790,13 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-48", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1375, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 31, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 144 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-48", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1375, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 31, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 144 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C49" t="s">
         <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E49" t="s">
         <v>114</v>
@@ -6806,27 +6806,27 @@
         <v>1375</v>
       </c>
       <c r="G49" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="I49" t="s">
         <v>115</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="K49" t="s">
         <v>116</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="4"/>
-        <v>144</v>
-      </c>
-      <c r="K49" t="s">
-        <v>117</v>
       </c>
       <c r="L49" t="s">
         <v>24</v>
       </c>
       <c r="M49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="1"/>
@@ -6839,13 +6839,13 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-49", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1400, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 31.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 147 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-49", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1400, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 31.5, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 147 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C50" t="s">
         <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
         <v>114</v>
@@ -6855,27 +6855,27 @@
         <v>1400</v>
       </c>
       <c r="G50" t="s">
+        <v>221</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>31.5</v>
+      </c>
+      <c r="I50" t="s">
         <v>115</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="3"/>
-        <v>31.5</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="K50" t="s">
         <v>116</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="4"/>
-        <v>147</v>
-      </c>
-      <c r="K50" t="s">
-        <v>117</v>
       </c>
       <c r="L50" t="s">
         <v>24</v>
       </c>
       <c r="M50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="1"/>
@@ -6888,13 +6888,13 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "turret", name = "cursed-turret-50", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1425, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 32, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 150 , type = "physical"} } } } } } } } } },</v>
+        <v>{ type = "turret", name = "cursed-turret-50", icon = "__Cursed-Exp__/graphics/icons/turret/cursed-turret-1.jpg", flags = {"placeable-player", "not-repairable", "breaths-air"}, order="b-b-d", max_health = 1425, subgroup="cursed-build", collision_box = {{-1.4, -1.4}, {1.4, 1.4}}, selection_box = {{-1.5, -1.5}, {1.5, 1.5}}, shooting_cursor_size = 5, corpse = "small-worm-corpse", dying_explosion = "blood-explosion-big", minable = {mining_time = 1.5, result = "cursed-turret-1"}, folded_speed = 0.01, folded_animation = sunken_stand(), starting_attack_speed = 0.03, starting_attack_animation = sunken_attack("forward"), starting_attack_sound = sunken_sound(), ending_attack_speed = 0.03, ending_attack_animation = sunken_attack("backward"), attack_parameters = { ammo_category = "bullet", cooldown = 1, range = 32, ammo_type = { category = "bullet", action = { { type = "direct", action_delivery = { { type = "instant", target_effects = { { type = "create-entity", entity_name = "sunken_spike" }, { type = "damage", damage = { amount = 150 , type = "physical"} } } } } } } } } },</v>
       </c>
       <c r="C51" t="s">
         <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E51" t="s">
         <v>114</v>
@@ -6904,27 +6904,27 @@
         <v>1425</v>
       </c>
       <c r="G51" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="I51" t="s">
         <v>115</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="K51" t="s">
         <v>116</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="K51" t="s">
-        <v>117</v>
       </c>
       <c r="L51" t="s">
         <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="1"/>

--- a/prototypes/creates/create buildings.xlsx
+++ b/prototypes/creates/create buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="20115" windowHeight="8250" tabRatio="413" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="20115" windowHeight="8250" tabRatio="413"/>
   </bookViews>
   <sheets>
     <sheet name="mining-drill" sheetId="1" r:id="rId1"/>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4456,8 +4456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B2:B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
